--- a/skills_export.xlsx
+++ b/skills_export.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RAKESH</t>
+          <t>harshavardhan jangiti</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rakesh@gmail.com</t>
+          <t>harshavardhanjangiti@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>beginner</t>
+          <t>Beginner</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -488,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RAKESH</t>
+          <t>NANI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rakesh@gmail.com</t>
+          <t>NANI@gmail.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>django</t>
+          <t>DJANGO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>intermediate</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -513,22 +513,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gana</t>
+          <t>kranthikumar</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ganareddy@gmail.com</t>
+          <t>kranthikumar@gmail.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>postgresql</t>
+          <t>DJANGO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>beginner</t>
+          <t>Beginner</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -538,22 +538,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gana</t>
+          <t>Harshak</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ganareddy@gmail.com</t>
+          <t>jharsha5533@gmail.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jira</t>
+          <t>git</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>beginner</t>
+          <t>Beginner</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -563,25 +563,50 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vandana</t>
+          <t>ramesh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>vandana@gmail.com</t>
+          <t>ramesh5533@gmail.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>git</t>
+          <t>docker</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>beginner</t>
+          <t>Expert</t>
         </is>
       </c>
       <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ramesh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ramesh5533@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jira</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Expert</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
